--- a/Selenium/Bugs/data/genre/월드뮤직.xlsx
+++ b/Selenium/Bugs/data/genre/월드뮤직.xlsx
@@ -25,7 +25,7 @@
     <t>Image</t>
   </si>
   <si>
-    <t>Swing Pour Rolf</t>
+    <t xml:space="preserve">Swing Pour Rolf </t>
   </si>
   <si>
     <t>C'est si bon</t>
@@ -58,10 +58,10 @@
     <t>Charlie's Swing</t>
   </si>
   <si>
-    <t>Djangologie (Django Reinhardt)</t>
-  </si>
-  <si>
-    <t>Venez donc chez moi</t>
+    <t xml:space="preserve">Djangologie (Django Reinhardt) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venez donc chez moi </t>
   </si>
   <si>
     <t>Bleu Citron</t>
@@ -70,7 +70,7 @@
     <t>Menilmontant</t>
   </si>
   <si>
-    <t>Cloviswing</t>
+    <t xml:space="preserve">Cloviswing </t>
   </si>
   <si>
     <t>Not So Fast</t>
@@ -85,7 +85,7 @@
     <t>L'ame Des Poetes</t>
   </si>
   <si>
-    <t>Wonderful You</t>
+    <t xml:space="preserve">Wonderful You </t>
   </si>
   <si>
     <t>C'est Magnifique</t>
@@ -94,7 +94,7 @@
     <t>Song D'automne</t>
   </si>
   <si>
-    <t>I'll See You in My Dreams From "Midnight in Paris"</t>
+    <t xml:space="preserve">I'll See You in My Dreams From "Midnight in Paris" </t>
   </si>
   <si>
     <t>L'amour ? La Francaise (feat. H?L?Na Noguerra, Barbara Carlotti, Jean Philippe Nataf &amp; Philippe Katerine)</t>
@@ -109,10 +109,10 @@
     <t>La Javanaise</t>
   </si>
   <si>
-    <t>Dansez Sur Moi</t>
-  </si>
-  <si>
-    <t>Les yeux ouverts (dream a little dream of me)</t>
+    <t xml:space="preserve">Dansez Sur Moi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les yeux ouverts (dream a little dream of me) </t>
   </si>
   <si>
     <t>Sait-on jamais ?</t>
@@ -121,7 +121,7 @@
     <t>La Mer</t>
   </si>
   <si>
-    <t>C'est merveilleux</t>
+    <t xml:space="preserve">C'est merveilleux </t>
   </si>
   <si>
     <t>Le Temps Qui Passe</t>
@@ -130,7 +130,7 @@
     <t>Chanson De Maxence</t>
   </si>
   <si>
-    <t>Mon fantôme</t>
+    <t xml:space="preserve">Mon fantôme </t>
   </si>
   <si>
     <t>Les Etoiles</t>
@@ -160,7 +160,7 @@
     <t>Jardin D'Hiver</t>
   </si>
   <si>
-    <t>Shoegazing</t>
+    <t xml:space="preserve">Shoegazing </t>
   </si>
   <si>
     <t>La Belle Dame Sans Regrets (Album Version)</t>
@@ -169,7 +169,7 @@
     <t>Sous Le Ciel De Paris</t>
   </si>
   <si>
-    <t>Minor swing / Matawa</t>
+    <t xml:space="preserve">Minor swing / Matawa </t>
   </si>
   <si>
     <t>Dans Mon Paris (Swing Manouche ver.)</t>
@@ -178,13 +178,13 @@
     <t>Swing 42</t>
   </si>
   <si>
-    <t>Per Na Cola</t>
+    <t xml:space="preserve">Per Na Cola </t>
   </si>
   <si>
     <t>I've Had My Moments</t>
   </si>
   <si>
-    <t>Billet Doux</t>
+    <t xml:space="preserve">Billet Doux </t>
   </si>
   <si>
     <t>J'suis pas d'ici</t>
@@ -202,7 +202,7 @@
     <t>Fête De La Musique</t>
   </si>
   <si>
-    <t>Ménilmontant</t>
+    <t xml:space="preserve">Ménilmontant </t>
   </si>
   <si>
     <t>Karius &amp; Baktus</t>
@@ -220,7 +220,7 @@
     <t>Jordu (Featuring Robin Nolan)</t>
   </si>
   <si>
-    <t>Begin The Beguine</t>
+    <t xml:space="preserve">Begin The Beguine </t>
   </si>
   <si>
     <t>What Is This Thing Called Love</t>
@@ -508,7 +508,7 @@
     <t>Meng Hua (Insert Song of TV Drama "Ice Fantasy")</t>
   </si>
   <si>
-    <t>故長安(古風品質大劇《將夜》主題曲)</t>
+    <t xml:space="preserve">故長安(古風品質大劇《將夜》主題曲) </t>
   </si>
   <si>
     <t>可惜不是니 (가석불시니) (드라마 '슬픈연가' 대만주제곡)</t>
@@ -523,7 +523,7 @@
     <t>有风的夜晚 (바람 부는 밤) - 엔딩곡</t>
   </si>
   <si>
-    <t>No Reason</t>
+    <t xml:space="preserve">No Reason </t>
   </si>
   <si>
     <t>Ru Guo Mei You Ni</t>
@@ -547,7 +547,7 @@
     <t>莞爾</t>
   </si>
   <si>
-    <t>我</t>
+    <t xml:space="preserve">我 </t>
   </si>
   <si>
     <t>心還是熱的</t>
@@ -565,7 +565,7 @@
     <t>Ge Lou (Album Version)</t>
   </si>
   <si>
-    <t>失去的資格</t>
+    <t xml:space="preserve">失去的資格 </t>
   </si>
   <si>
     <t>Two Winters</t>
@@ -580,7 +580,7 @@
     <t>Gao Bai Qi Qiu</t>
   </si>
   <si>
-    <t>Dust My Shoulders Off (feat. Timbaland)</t>
+    <t xml:space="preserve">Dust My Shoulders Off (feat. Timbaland) </t>
   </si>
   <si>
     <t>Despacio (feat. Myke Towers, DJ Luian, Mambo KIngz)</t>
@@ -631,7 +631,7 @@
     <t>Pa' Lante</t>
   </si>
   <si>
-    <t>Quien Sabe</t>
+    <t xml:space="preserve">Quien Sabe </t>
   </si>
   <si>
     <t>Muito Calor</t>
@@ -721,13 +721,13 @@
     <t>Communication's Lost</t>
   </si>
   <si>
-    <t>Amor Em Paz (Love In Peace)</t>
+    <t xml:space="preserve">Amor Em Paz (Love In Peace) </t>
   </si>
   <si>
     <t>Onde Anda Você</t>
   </si>
   <si>
-    <t>Garota de Ipanema</t>
+    <t xml:space="preserve">Garota de Ipanema </t>
   </si>
   <si>
     <t>Águas De Março</t>
@@ -757,13 +757,13 @@
     <t>Mas Que Nada</t>
   </si>
   <si>
-    <t>Ó Barquinho</t>
-  </si>
-  <si>
-    <t>Oba-Là-Là</t>
-  </si>
-  <si>
-    <t>O bonde de são januário</t>
+    <t xml:space="preserve">Ó Barquinho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oba-Là-Là </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O bonde de são januário </t>
   </si>
   <si>
     <t>Sweet Thing</t>
@@ -781,10 +781,10 @@
     <t>Desafinado</t>
   </si>
   <si>
-    <t>Chove Lá Fora</t>
-  </si>
-  <si>
-    <t>O Amor e a Rosa</t>
+    <t xml:space="preserve">Chove Lá Fora </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Amor e a Rosa </t>
   </si>
   <si>
     <t>Chega De Saudade (Bonus Track)</t>
@@ -796,7 +796,7 @@
     <t>Tristeza</t>
   </si>
   <si>
-    <t>Lullaby of Birdland</t>
+    <t xml:space="preserve">Lullaby of Birdland </t>
   </si>
   <si>
     <t>Call Me</t>
